--- a/biology/Médecine/1251_en_santé_et_médecine/1251_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1251_en_santé_et_médecine/1251_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1251_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1251_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1251 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1251_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1251_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22 juin : l'archevêque de Reims, Thomas de Beaumetz, échange aux lépreux de son diocèse leur droit de ramassage du bois contre une rente annuelle[1].
-L'empereur Frédéric II, dans son royaume de Sicile, « ordonne de disséquer tous les cinq ans un cadavre et défend d'exercer la chirurgie sans avoir appris l'anatomie[2] ».
-Les premiers titres de bachelier et de docteur en médecine sont conférés à Paris[2].
-Au lieu du mot de « physique », en usage depuis le milieu du XIIe siècle, celui de « médecine » (medicina en latin) « est relevé pour la première fois […] dans un serment imposé aux maîtres et aux élèves de toutes les facultés parisiennes[3] ».
-Fondation de l'hôpital de Bergues par Marguerite II, comtesse de Flandre[4].
-Fondation de la léproserie de Lunebourg (Leprosenheim Lüneburg) ou hôpital Saint-Nicolas (Hospital St. Nikolaihof), à Bardowick, en Basse-Saxe[5].
-Les frères et sœurs de l'hôpital Notre-Dame de Seclin, dans le comté de Flandre, adoptent la règle de saint Augustin[6].
-Mention de la plus ancienne pharmacie de Radlje, en Carinthie slovène[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 juin : l'archevêque de Reims, Thomas de Beaumetz, échange aux lépreux de son diocèse leur droit de ramassage du bois contre une rente annuelle.
+L'empereur Frédéric II, dans son royaume de Sicile, « ordonne de disséquer tous les cinq ans un cadavre et défend d'exercer la chirurgie sans avoir appris l'anatomie ».
+Les premiers titres de bachelier et de docteur en médecine sont conférés à Paris.
+Au lieu du mot de « physique », en usage depuis le milieu du XIIe siècle, celui de « médecine » (medicina en latin) « est relevé pour la première fois […] dans un serment imposé aux maîtres et aux élèves de toutes les facultés parisiennes ».
+Fondation de l'hôpital de Bergues par Marguerite II, comtesse de Flandre.
+Fondation de la léproserie de Lunebourg (Leprosenheim Lüneburg) ou hôpital Saint-Nicolas (Hospital St. Nikolaihof), à Bardowick, en Basse-Saxe.
+Les frères et sœurs de l'hôpital Notre-Dame de Seclin, dans le comté de Flandre, adoptent la règle de saint Augustin.
+Mention de la plus ancienne pharmacie de Radlje, en Carinthie slovène.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1251_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1251_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Avant 1251 : fl. Denis, barbier à Châlons, en Champagne[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Avant 1251 : fl. Denis, barbier à Châlons, en Champagne.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1251_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1251_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bertrand (né à une date inconnue), médecin, bienfaiteur du chapitre de Saint-Martin de Limoges, dans le cloître duquel il est enterré[8].
-Li Dongyuan (né en 1180), médecin chinois, auteur, en 1249, d'un « Traité de la rate et de l'estomac » (Pi Wei Lun[9]).
-1241 ou 1251 : David ben Salomon (né en 1161), « médecin juif, rallié pour la forme à l'Islam[10] », ayant exercé au Caire, à l'hôpital al-Nassiri[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bertrand (né à une date inconnue), médecin, bienfaiteur du chapitre de Saint-Martin de Limoges, dans le cloître duquel il est enterré.
+Li Dongyuan (né en 1180), médecin chinois, auteur, en 1249, d'un « Traité de la rate et de l'estomac » (Pi Wei Lun).
+1241 ou 1251 : David ben Salomon (né en 1161), « médecin juif, rallié pour la forme à l'Islam », ayant exercé au Caire, à l'hôpital al-Nassiri.</t>
         </is>
       </c>
     </row>
